--- a/src/assets/samples/Import Add Device Template.xlsx
+++ b/src/assets/samples/Import Add Device Template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Free\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afaqy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586B1A8F-E3D6-4FC7-8616-4941F7F35F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAB5017-D4A2-4478-A325-F458C8C654EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{015474F9-D703-42F3-9422-1E6E79467DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t xml:space="preserve"> ModelType</t>
+    <t>ModelType</t>
   </si>
   <si>
     <t>Condition</t>
@@ -55,13 +55,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,9 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,7 +134,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -133,7 +146,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -180,6 +193,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -215,6 +245,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -366,52 +413,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6681F3-CF7B-43CB-9BA1-2B4E8EA08F1B}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="1"/>
-    <col min="15" max="15" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
